--- a/data/city_pairs_new.xlsx
+++ b/data/city_pairs_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orson\Documents\GitHub\vis_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA139402-3C0A-44E1-9AE0-1A1AAAC480FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FA848E-1184-43D9-B92C-C0761E8AB17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
